--- a/docs/Bewertungsbogen_P56.xlsx
+++ b/docs/Bewertungsbogen_P56.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/switchdrive/IP5 Tello Simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danio\IdeaProjects\TelloSimulator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1325BDB-92F1-7D42-A14E-91890BA84B95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2685805D-8601-4CD7-BAA9-4D8F10930DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Gesamtbewertung (Text)" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1639,9 +1641,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1680,48 +1724,6 @@
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1789,9 +1791,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4874,7 +4876,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5203,271 +5205,265 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="80" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="56"/>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="164" t="s">
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="167"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="167"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="169"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="167"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="167"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="167"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="167"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="167"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="167"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="167"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="167"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="170"/>
-      <c r="B35" s="171"/>
-      <c r="C35" s="172"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="153"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="153"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="153"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="153"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+    </row>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+    </row>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+    </row>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="153"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="153"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+    </row>
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+    </row>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="158"/>
+    </row>
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="55"/>
       <c r="B36" s="56"/>
     </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="150" t="s">
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="150"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="62">
         <f>'2. Detailbewertung (Excel)'!C34</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="56"/>
     </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="150" t="s">
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="156" t="s">
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+    </row>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="151" t="s">
+      <c r="B40" s="171"/>
+      <c r="C40" s="172"/>
+    </row>
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="173"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="175"/>
+    </row>
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+    </row>
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="55"/>
       <c r="B43" s="56"/>
     </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="55"/>
       <c r="B44" s="56"/>
     </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="162">
+      <c r="B45" s="176">
         <f ca="1">TODAY()</f>
-        <v>43900</v>
-      </c>
-      <c r="C45" s="163"/>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44164</v>
+      </c>
+      <c r="C45" s="177"/>
+    </row>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+    </row>
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="58"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+    </row>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="155"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A14:C35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C10"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="B49:C49"/>
@@ -5478,6 +5474,12 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A14:C35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.68" right="0.19" top="0.25" bottom="0.97" header="0.96" footer="0.4921259845"/>
@@ -5491,22 +5493,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="74" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" customWidth="1"/>
-    <col min="6" max="6" width="65.83203125" customWidth="1"/>
-    <col min="7" max="7" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="B1" s="127" t="s">
         <v>44</v>
       </c>
@@ -5516,7 +5518,7 @@
       <c r="F1" s="126"/>
       <c r="G1" s="126"/>
     </row>
-    <row r="2" spans="1:7" s="124" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="124" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -5525,7 +5527,7 @@
       <c r="F2" s="125"/>
       <c r="G2" s="125"/>
     </row>
-    <row r="3" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="178" t="s">
         <v>59</v>
       </c>
@@ -5535,7 +5537,7 @@
       <c r="F3" s="178"/>
       <c r="G3" s="178"/>
     </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="179" t="s">
         <v>9</v>
       </c>
@@ -5545,7 +5547,7 @@
       <c r="F4" s="180"/>
       <c r="G4" s="180"/>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="15" t="s">
         <v>0</v>
@@ -5564,7 +5566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="72" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="72" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="98">
         <v>1</v>
       </c>
@@ -5577,7 +5579,7 @@
       <c r="F6" s="191"/>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
         <v>1.1000000000000001</v>
       </c>
@@ -5587,16 +5589,14 @@
       <c r="C7" s="95">
         <v>0.3</v>
       </c>
-      <c r="D7" s="96">
-        <v>4.5</v>
-      </c>
+      <c r="D7" s="96"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="130"/>
     </row>
-    <row r="8" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="77">
         <v>1.2</v>
       </c>
@@ -5606,16 +5606,14 @@
       <c r="C8" s="121">
         <v>0.3</v>
       </c>
-      <c r="D8" s="96">
-        <v>4.5</v>
-      </c>
+      <c r="D8" s="96"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="130"/>
     </row>
-    <row r="9" spans="1:7" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="219.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78">
         <v>1.3</v>
       </c>
@@ -5625,16 +5623,14 @@
       <c r="C9" s="30">
         <v>0.3</v>
       </c>
-      <c r="D9" s="96">
-        <v>5</v>
-      </c>
+      <c r="D9" s="96"/>
       <c r="E9" s="31"/>
       <c r="F9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="108" t="s">
         <v>14</v>
@@ -5644,13 +5640,13 @@
       </c>
       <c r="D10" s="110">
         <f>(C7*D7+C8*D8+C9*D9)/SUM(C7:C9)</f>
-        <v>4.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="80">
         <v>2</v>
       </c>
@@ -5663,7 +5659,7 @@
       <c r="F11" s="194"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="81">
         <v>2.1</v>
       </c>
@@ -5673,16 +5669,14 @@
       <c r="C12" s="97">
         <v>0.5</v>
       </c>
-      <c r="D12" s="96">
-        <v>4</v>
-      </c>
+      <c r="D12" s="96"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="128"/>
     </row>
-    <row r="13" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78">
         <v>2.2000000000000002</v>
       </c>
@@ -5692,16 +5686,14 @@
       <c r="C13" s="65">
         <v>1.5</v>
       </c>
-      <c r="D13" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D13" s="96"/>
       <c r="E13" s="31"/>
       <c r="F13" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="129"/>
     </row>
-    <row r="14" spans="1:7" ht="205.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78">
         <v>2.2999999999999998</v>
       </c>
@@ -5718,7 +5710,7 @@
       </c>
       <c r="G14" s="130"/>
     </row>
-    <row r="15" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78">
         <v>2.4</v>
       </c>
@@ -5728,16 +5720,14 @@
       <c r="C15" s="30">
         <v>0.5</v>
       </c>
-      <c r="D15" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D15" s="96"/>
       <c r="E15" s="31"/>
       <c r="F15" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="131"/>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="107">
         <v>2.5</v>
       </c>
@@ -5747,14 +5737,12 @@
       <c r="C16" s="68">
         <v>1</v>
       </c>
-      <c r="D16" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D16" s="96"/>
       <c r="E16" s="69"/>
       <c r="F16" s="70"/>
       <c r="G16" s="132"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
       <c r="B17" s="108" t="s">
         <v>38</v>
@@ -5764,13 +5752,13 @@
       </c>
       <c r="D17" s="110">
         <f>(C12*D12+C13*D13+C14*D14+C15*D15+C16*D16)/SUM(C12:C16)</f>
-        <v>4.1111111111111107</v>
+        <v>0</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89">
         <v>3</v>
       </c>
@@ -5783,7 +5771,7 @@
       <c r="F18" s="191"/>
       <c r="G18" s="90"/>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="23" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78">
         <v>3.1</v>
       </c>
@@ -5793,16 +5781,14 @@
       <c r="C19" s="26">
         <v>0.8</v>
       </c>
-      <c r="D19" s="96">
-        <v>4.5</v>
-      </c>
+      <c r="D19" s="96"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="130"/>
     </row>
-    <row r="20" spans="1:8" s="24" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="24" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="118">
         <v>3.2</v>
       </c>
@@ -5821,7 +5807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="105">
         <v>3.3</v>
       </c>
@@ -5831,16 +5817,14 @@
       <c r="C21" s="42">
         <v>1.2</v>
       </c>
-      <c r="D21" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D21" s="96"/>
       <c r="E21" s="41"/>
       <c r="F21" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="101"/>
       <c r="B22" s="108" t="s">
         <v>39</v>
@@ -5850,13 +5834,13 @@
       </c>
       <c r="D22" s="112">
         <f>(C19*D19+C20*D20+C21*D21)/SUM(C19:C21)</f>
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="99">
         <v>4</v>
       </c>
@@ -5870,7 +5854,7 @@
       <c r="G23" s="37"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="85">
         <v>4.0999999999999996</v>
       </c>
@@ -5880,9 +5864,7 @@
       <c r="C24" s="122">
         <v>1</v>
       </c>
-      <c r="D24" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D24" s="96"/>
       <c r="E24" s="39"/>
       <c r="F24" s="28" t="s">
         <v>31</v>
@@ -5890,7 +5872,7 @@
       <c r="G24" s="131"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="83">
         <v>4.2</v>
       </c>
@@ -5900,16 +5882,14 @@
       <c r="C25" s="121">
         <v>1</v>
       </c>
-      <c r="D25" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D25" s="96"/>
       <c r="E25" s="40"/>
       <c r="F25" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="130"/>
     </row>
-    <row r="26" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="105">
         <v>4.3</v>
       </c>
@@ -5919,16 +5899,14 @@
       <c r="C26" s="123">
         <v>2</v>
       </c>
-      <c r="D26" s="96">
-        <v>5.5</v>
-      </c>
+      <c r="D26" s="96"/>
       <c r="E26" s="41"/>
       <c r="F26" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
       <c r="B27" s="113" t="s">
         <v>15</v>
@@ -5938,13 +5916,13 @@
       </c>
       <c r="D27" s="112">
         <f>(C24*D24+C25*D25+C26*D26)/SUM(C24:C26)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="82"/>
       <c r="B28" s="114" t="s">
         <v>11</v>
@@ -5952,13 +5930,13 @@
       <c r="C28" s="115"/>
       <c r="D28" s="116">
         <f>(C10*D10+C17*D17+C22*D22+C27*D27)/SUM(C10,C17,C22,C27)</f>
-        <v>4.6013888888888879</v>
+        <v>0</v>
       </c>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="100">
         <v>5</v>
       </c>
@@ -5971,7 +5949,7 @@
       <c r="F29" s="191"/>
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="104"/>
       <c r="B30" s="102" t="s">
         <v>7</v>
@@ -5988,7 +5966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="104"/>
       <c r="B31" s="102" t="s">
         <v>8</v>
@@ -6003,7 +5981,7 @@
       </c>
       <c r="G31" s="134"/>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="101"/>
       <c r="B32" s="103" t="s">
         <v>13</v>
@@ -6018,7 +5996,7 @@
       </c>
       <c r="G32" s="135"/>
     </row>
-    <row r="33" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="117" t="s">
         <v>12</v>
@@ -6032,21 +6010,21 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="B34" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="183">
         <f>ROUND(D28+C33,1)</f>
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="D34" s="184"/>
       <c r="E34" s="47"/>
       <c r="F34" s="48"/>
       <c r="G34" s="49"/>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="73"/>
       <c r="B35" s="7"/>
       <c r="C35" s="51"/>
@@ -6055,7 +6033,7 @@
       <c r="F35" s="4"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="88"/>
       <c r="B36" s="10"/>
       <c r="C36" s="12"/>
@@ -6064,14 +6042,14 @@
       <c r="F36" s="11"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="18"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
@@ -6112,18 +6090,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="138" customWidth="1"/>
-    <col min="2" max="2" width="67.83203125" style="136" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" style="136" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="140" t="s">
         <v>47</v>
       </c>
@@ -6131,10 +6109,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="139"/>
     </row>
-    <row r="8" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="140" t="s">
         <v>46</v>
       </c>
@@ -6142,10 +6120,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="139"/>
     </row>
-    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="142" t="s">
         <v>48</v>
       </c>
@@ -6153,41 +6131,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="144"/>
       <c r="B11" s="145"/>
     </row>
-    <row r="12" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="146"/>
       <c r="B12" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="146"/>
       <c r="B13" s="147"/>
     </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="146"/>
       <c r="B14" s="145" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="146"/>
       <c r="B15" s="147"/>
     </row>
-    <row r="16" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="146"/>
       <c r="B16" s="145" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="146"/>
       <c r="B17" s="147"/>
     </row>
-    <row r="18" spans="1:2" ht="56" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="148"/>
       <c r="B18" s="149" t="s">
         <v>50</v>
